--- a/Подсчет заданий/money.xlsx
+++ b/Подсчет заданий/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Подсчет заданий\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C9EAC6-454F-43BE-A45D-CE976BE98C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB3BFDA-CDC8-4292-8658-9A0CBDAADCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="1387">
   <si>
     <t>Link</t>
   </si>
@@ -4010,13 +4010,136 @@
     <t>https://lms.partaonline.ru/mentor/homeworks/627313</t>
   </si>
   <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650818</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650650</t>
+  </si>
+  <si>
+    <t>19:33:00</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650649</t>
+  </si>
+  <si>
+    <t>19:32:00</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650648</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650645</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650644</t>
+  </si>
+  <si>
+    <t>19:30:00</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650642</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650640</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650570</t>
+  </si>
+  <si>
+    <t>18:22:00</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650496</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650490</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650470</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650342</t>
+  </si>
+  <si>
+    <t>12:15:00</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650219</t>
+  </si>
+  <si>
+    <t>12:11:00</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650171</t>
+  </si>
+  <si>
+    <t>12:10:00</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650150</t>
+  </si>
+  <si>
+    <t>12:09:00</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650093</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650079</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/650004</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/649957</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/649928</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/649807</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/649792</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/649674</t>
+  </si>
+  <si>
+    <t>13:24:00</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/649593</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/649508</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/649480</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/649479</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/649450</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/649392</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/649367</t>
+  </si>
+  <si>
+    <t>https://lms.partaonline.ru/mentor/homeworks/649342</t>
+  </si>
+  <si>
     <t>https://lms.partaonline.ru/mentor/homeworks/649239</t>
   </si>
   <si>
     <t>12:38:00</t>
-  </si>
-  <si>
-    <t>January</t>
   </si>
   <si>
     <t>https://lms.partaonline.ru/mentor/homeworks/649065</t>
@@ -23780,7 +23903,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="A1:XFD1048576"/>
@@ -23828,13 +23951,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
         <v>1327</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1328</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -23845,25 +23968,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D3" t="s">
         <v>1329</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>46025</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1327</v>
       </c>
-      <c r="E3" t="s">
-        <v>1328</v>
-      </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -23874,19 +23997,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="D4" t="s">
         <v>1331</v>
       </c>
       <c r="E4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -23897,13 +24020,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="D5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E5" t="s">
         <v>1327</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1328</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -23917,21 +24040,757 @@
         <v>1333</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C11" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D11" t="s">
+        <v>782</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D12" t="s">
+        <v>784</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D13" t="s">
+        <v>784</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>46026</v>
+      </c>
+      <c r="D23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>46026</v>
+      </c>
+      <c r="D24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2">
+        <v>46026</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
+        <v>46026</v>
+      </c>
+      <c r="D26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2">
+        <v>46026</v>
+      </c>
+      <c r="D27" t="s">
+        <v>912</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2">
+        <v>46026</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
+        <v>46026</v>
+      </c>
+      <c r="D29" t="s">
+        <v>363</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>46026</v>
+      </c>
+      <c r="D30" t="s">
+        <v>597</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
+        <v>46026</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
+        <v>46026</v>
+      </c>
+      <c r="D32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2">
+        <v>46026</v>
+      </c>
+      <c r="D33" t="s">
+        <v>398</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2">
+        <v>46025</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2">
+        <v>46025</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2">
+        <v>46025</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2">
         <v>46024</v>
       </c>
-      <c r="D6" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F6">
+      <c r="D37" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2">
+        <v>46024</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F38">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G38">
         <v>18</v>
       </c>
     </row>
@@ -23944,8 +24803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23972,12 +24831,12 @@
         <v>1114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1335</v>
+        <v>1376</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -23997,7 +24856,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1336</v>
+        <v>1377</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -24017,7 +24876,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1337</v>
+        <v>1378</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -24029,7 +24888,7 @@
         <v>94</v>
       </c>
       <c r="E4">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -24037,7 +24896,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1338</v>
+        <v>1379</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -24049,7 +24908,7 @@
         <v>940</v>
       </c>
       <c r="E5">
-        <v>790</v>
+        <v>820</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -24057,7 +24916,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1339</v>
+        <v>1380</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -24069,7 +24928,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -24077,7 +24936,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1340</v>
+        <v>1381</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -24089,7 +24948,7 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -24097,7 +24956,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1341</v>
+        <v>1382</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -24117,7 +24976,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1342</v>
+        <v>1383</v>
       </c>
       <c r="B9">
         <v>4500</v>
@@ -24152,12 +25011,12 @@
         <v>463</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1343</v>
+        <v>1384</v>
       </c>
       <c r="B11">
         <v>10130</v>
@@ -24172,12 +25031,12 @@
         <v>5670</v>
       </c>
       <c r="F11">
-        <v>208</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1344</v>
+        <v>1385</v>
       </c>
       <c r="B12">
         <v>14630</v>
@@ -24189,15 +25048,15 @@
         <v>15791</v>
       </c>
       <c r="E12">
-        <v>12045</v>
+        <v>12090</v>
       </c>
       <c r="F12">
-        <v>208</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1345</v>
+        <v>1386</v>
       </c>
       <c r="B13">
         <v>12728.1</v>
@@ -24209,10 +25068,10 @@
         <v>13738.17</v>
       </c>
       <c r="E13">
-        <v>10479.15</v>
+        <v>10518.3</v>
       </c>
       <c r="F13">
-        <v>180.96</v>
+        <v>1334.58</v>
       </c>
     </row>
   </sheetData>
